--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4091085.18494927</v>
+        <v>4084068.17005756</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7411858.50509469</v>
+        <v>7411858.505094691</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>389.7691182433937</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -721,10 +721,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>95.40725551720092</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -825,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>18.74104475512576</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>208.2793294336578</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -904,13 +904,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>244.9655593200551</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>43.27130022646798</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>37.83808333974872</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>44.17579562641288</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>60.26951970765084</v>
       </c>
       <c r="I8" t="n">
-        <v>82.86725691228301</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>30.60408762095441</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>83.82466560786631</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722609</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.287249111317</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274088</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>87.68921229121709</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -1584,19 +1584,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1773,13 +1773,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1818,16 +1818,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>180.4018941481308</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>206.806426921486</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,10 +2004,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U19" t="n">
-        <v>204.6102457734941</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>5.562624396425368</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2481,19 +2481,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>110.5921384680602</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2721,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>61.37564464709723</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>203.8435192151917</v>
       </c>
     </row>
     <row r="29">
@@ -2800,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722607</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>234.0618398596059</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
         <v>81.77913505274074</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>23.54197519642561</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,19 +3477,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>220.3947663769752</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634823</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274121</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>10.12173687217032</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3906,16 +3906,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -3954,19 +3954,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>110.1707519847948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4137,25 +4137,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>33.35146980185879</v>
       </c>
       <c r="Y46" t="n">
-        <v>36.18800036829729</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>806.0470106353782</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C2" t="n">
-        <v>806.0470106353782</v>
+        <v>1293.521057189058</v>
       </c>
       <c r="D2" t="n">
-        <v>806.0470106353782</v>
+        <v>935.2553585823075</v>
       </c>
       <c r="E2" t="n">
-        <v>806.0470106353782</v>
+        <v>935.2553585823075</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>928.309857833104</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4369,13 +4369,13 @@
         <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1566.11260896058</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1192.6468506995</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1192.6468506995</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4391,19 +4391,19 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4421,7 +4421,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>494.9102127870964</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="C4" t="n">
-        <v>494.9102127870964</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D4" t="n">
-        <v>494.9102127870964</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>494.9102127870964</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>348.0202652891861</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>494.9102127870964</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>494.9102127870964</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>494.9102127870964</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="X4" t="n">
-        <v>494.9102127870964</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="Y4" t="n">
-        <v>494.9102127870964</v>
+        <v>517.7458231623355</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>913.7382812066351</v>
+        <v>1937.083492693021</v>
       </c>
       <c r="C5" t="n">
-        <v>913.7382812066351</v>
+        <v>1937.083492693021</v>
       </c>
       <c r="D5" t="n">
-        <v>555.4725825998845</v>
+        <v>1578.81779408627</v>
       </c>
       <c r="E5" t="n">
-        <v>555.4725825998845</v>
+        <v>1193.029541488026</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>782.0436366984186</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2653.440706951083</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2477.263219265253</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2258.628552237316</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2004.866766875407</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1673.803879531837</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1673.803879531837</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>1300.338121270757</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y5" t="n">
-        <v>1300.338121270757</v>
+        <v>2323.683332757143</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4649,13 +4649,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>245.4549451025302</v>
+        <v>689.9086980046678</v>
       </c>
       <c r="C7" t="n">
-        <v>245.4549451025302</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="D7" t="n">
-        <v>245.4549451025302</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E7" t="n">
-        <v>245.4549451025302</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>98.56499760461989</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>98.56499760461989</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>98.56499760461989</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005476</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>473.4444960005476</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>245.4549451025302</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>245.4549451025302</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>885.7444020895362</v>
+        <v>2056.787465592192</v>
       </c>
       <c r="C8" t="n">
-        <v>516.7818851491245</v>
+        <v>1687.824948651781</v>
       </c>
       <c r="D8" t="n">
-        <v>158.516186542374</v>
+        <v>1329.55925004503</v>
       </c>
       <c r="E8" t="n">
-        <v>158.516186542374</v>
+        <v>943.7709974467859</v>
       </c>
       <c r="F8" t="n">
-        <v>151.5706857931705</v>
+        <v>532.7850926571784</v>
       </c>
       <c r="G8" t="n">
-        <v>137.6472817317614</v>
+        <v>114.8212845553653</v>
       </c>
       <c r="H8" t="n">
-        <v>137.6472817317614</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224076</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W8" t="n">
-        <v>1662.48357412947</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="X8" t="n">
-        <v>1662.48357412947</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="Y8" t="n">
-        <v>1272.344242153658</v>
+        <v>2443.387305656314</v>
       </c>
     </row>
     <row r="9">
@@ -4880,10 +4880,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
@@ -4898,7 +4898,7 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>184.2708856551153</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>184.2708856551153</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>184.2708856551153</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610022</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V10" t="n">
-        <v>184.2708856551153</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W10" t="n">
-        <v>184.2708856551153</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X10" t="n">
-        <v>184.2708856551153</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y10" t="n">
-        <v>184.2708856551153</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="11">
@@ -5029,22 +5029,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5053,7 +5053,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5068,10 +5068,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
         <v>4262.3578574653</v>
@@ -5080,10 +5080,10 @@
         <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5108,37 +5108,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701562</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>1163.495507227045</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1514.038914395485</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059517</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>333.7051469529993</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="C13" t="n">
-        <v>333.7051469529993</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="D13" t="n">
-        <v>245.130185042679</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247865</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>964.1357418247865</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V13" t="n">
-        <v>964.1357418247865</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W13" t="n">
-        <v>964.1357418247865</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X13" t="n">
-        <v>736.1461909267691</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y13" t="n">
-        <v>515.353611783239</v>
+        <v>241.9805482336712</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5278,25 +5278,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.627437207829</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5345,37 +5345,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>177.1795914149474</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701562</v>
+        <v>326.2492756170072</v>
       </c>
       <c r="L15" t="n">
-        <v>1163.495507227045</v>
+        <v>940.1463453738959</v>
       </c>
       <c r="M15" t="n">
-        <v>1470.815640507007</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059517</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1116.772124970293</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>1116.772124970293</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V16" t="n">
-        <v>862.0876367644058</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W16" t="n">
-        <v>862.0876367644058</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>634.0980858663885</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5506,7 +5506,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5515,28 +5515,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5548,19 +5548,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5582,34 +5582,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>624.8682044203576</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M18" t="n">
-        <v>932.1883377003194</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N18" t="n">
-        <v>1736.59991596447</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183167</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5649,10 +5649,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
         <v>97.21709146028584</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U19" t="n">
-        <v>1181.164151186906</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V19" t="n">
-        <v>926.4796629810191</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W19" t="n">
-        <v>637.0624929440586</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>637.0624929440586</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514095</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5770,34 +5770,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5819,37 +5819,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341675</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,31 +5928,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1164.055751909234</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U22" t="n">
-        <v>874.9271131227924</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
-        <v>620.2426249169056</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>330.825454879945</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>102.8359039819276</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
         <v>97.21709146028584</v>
@@ -5968,49 +5968,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6022,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6056,13 +6056,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6071,10 +6071,10 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701562</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>796.3635653766204</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M24" t="n">
         <v>1332.091733170013</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.8460027287434</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>653.8460027287434</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>503.7293633164077</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>355.8162697340146</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>208.9263222361042</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>208.9263222361042</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1164.055751909234</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U25" t="n">
-        <v>1164.055751909234</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>1164.055751909234</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>874.6385818722736</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>874.6385818722736</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>653.8460027287434</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6205,19 +6205,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6226,28 +6226,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6293,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701562</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>796.3635653766204</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3966.372044102668</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>3966.372044102668</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>3966.372044102668</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>3818.458950520275</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>3671.569003022365</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3671.569003022365</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3521.150994570308</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4660.934562929845</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>4437.14914771935</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>4148.020508932908</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V28" t="n">
-        <v>4148.020508932908</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W28" t="n">
-        <v>4148.020508932908</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X28" t="n">
-        <v>4148.020508932908</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="Y28" t="n">
-        <v>4148.020508932908</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6445,7 +6445,7 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6454,46 +6454,46 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6530,37 +6530,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2208.321444831246</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3925.661817631304</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>3925.661817631304</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>3925.661817631304</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>3777.748724048911</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>3777.748724048911</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014291</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>4860.854573014291</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>4571.725934227849</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>4335.299833359561</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>4335.299833359561</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X31" t="n">
-        <v>4107.310282461543</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>4107.310282461543</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,70 +6679,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,37 +6767,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2302.237516093321</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>525.6009593486384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1251.351082421726</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>996.6665942158388</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>707.2494241788781</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>707.2494241788781</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>707.2494241788781</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -7016,28 +7016,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2080.218333389736</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>563.4612303381598</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
         <v>97.21709146028584</v>
@@ -7125,22 +7125,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>786.0822064765186</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>786.0822064765186</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>563.4612303381598</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>563.4612303381598</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805474</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822467</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7198,28 +7198,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>844.1942894808744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7362,22 +7362,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1075.21084526296</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>1075.21084526296</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>1075.21084526296</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>1075.21084526296</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>854.4182661194303</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7399,10 +7399,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7411,19 +7411,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7438,22 +7438,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7490,25 +7490,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>675.0071030383442</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>675.0071030383442</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>675.0071030383442</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>675.0071030383442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7727,28 +7727,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>261.8048459311029</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>410.8745301331628</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1024.771599890051</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>973.0255547109412</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>804.0893717830343</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>653.9727323706985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1298.996260473455</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U46" t="n">
-        <v>1298.996260473455</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V46" t="n">
-        <v>1298.996260473455</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W46" t="n">
-        <v>1009.579090436494</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X46" t="n">
-        <v>1009.579090436494</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>973.0255547109412</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8069,10 +8069,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.9238900028825</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8546,10 +8546,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360588</v>
       </c>
       <c r="P9" t="n">
-        <v>275.0442842992669</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8771,16 +8771,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>43.65987261462419</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8947,10 +8947,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.314990659903</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>38.86002301949895</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9017,7 +9017,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>43.65987261462408</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9184,7 +9184,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.314990659903</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9248,25 +9248,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>91.23759968302033</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9485,25 +9485,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M21" t="n">
-        <v>360.502686290725</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,13 +9719,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="M24" t="n">
-        <v>230.7151863772031</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>306.1147370139954</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10205,13 +10205,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>124.3400780863231</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445217</v>
@@ -10427,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>29.47535963978262</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445217</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>253.7371603504737</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>306.114737013996</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11138,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>306.114737013996</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445217</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>124.3400780863227</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11390,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>60.92626072699527</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>23.17774625772611</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23661,13 +23661,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23706,16 +23706,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>41.14566691025846</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23892,10 +23892,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U19" t="n">
-        <v>81.62710662508326</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>213.0220289556694</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,19 +24369,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>38.32168989947596</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24609,19 +24609,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>49.04360081717473</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>14.74113413690304</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,16 +24846,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24888,22 +24888,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>18.0758034642221</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25095,7 +25095,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>262.6953772021517</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,13 +25323,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25365,19 +25365,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>5.314889012061911</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>169.710243309767</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,22 +25602,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25794,16 +25794,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,19 +25842,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>108.4139013672999</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26025,25 +26025,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="Y46" t="n">
-        <v>182.3966529837975</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>632775.433545766</v>
+        <v>632775.4335457659</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>632775.433545766</v>
+        <v>632775.4335457659</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>632775.433545766</v>
+        <v>632775.4335457659</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>632775.433545766</v>
+        <v>632775.4335457659</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>632775.433545766</v>
+        <v>632775.4335457659</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>632775.4335457658</v>
+        <v>632775.4335457659</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>632775.4335457658</v>
+        <v>632775.4335457659</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>632775.4335457658</v>
+        <v>632775.4335457659</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>632775.433545766</v>
+        <v>632775.4335457659</v>
       </c>
     </row>
     <row r="16">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="C2" t="n">
         <v>779989.6813710689</v>
@@ -26322,40 +26322,40 @@
         <v>779989.6813710689</v>
       </c>
       <c r="E2" t="n">
+        <v>742955.2135016471</v>
+      </c>
+      <c r="F2" t="n">
+        <v>742955.2135016475</v>
+      </c>
+      <c r="G2" t="n">
         <v>742955.213501647</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>742955.2135016472</v>
-      </c>
-      <c r="G2" t="n">
-        <v>742955.2135016472</v>
-      </c>
-      <c r="H2" t="n">
-        <v>742955.2135016475</v>
       </c>
       <c r="I2" t="n">
         <v>742955.2135016471</v>
       </c>
       <c r="J2" t="n">
-        <v>742955.2135016473</v>
+        <v>742955.2135016471</v>
       </c>
       <c r="K2" t="n">
         <v>742955.2135016472</v>
       </c>
       <c r="L2" t="n">
-        <v>742955.213501647</v>
+        <v>742955.2135016471</v>
       </c>
       <c r="M2" t="n">
+        <v>742955.2135016472</v>
+      </c>
+      <c r="N2" t="n">
+        <v>742955.2135016472</v>
+      </c>
+      <c r="O2" t="n">
+        <v>742955.2135016469</v>
+      </c>
+      <c r="P2" t="n">
         <v>742955.2135016473</v>
-      </c>
-      <c r="N2" t="n">
-        <v>742955.2135016473</v>
-      </c>
-      <c r="O2" t="n">
-        <v>742955.2135016473</v>
-      </c>
-      <c r="P2" t="n">
-        <v>742955.2135016476</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
+        <v>7916.731656007525</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7916.731656007485</v>
+      </c>
+      <c r="G4" t="n">
         <v>7916.731656007483</v>
-      </c>
-      <c r="F4" t="n">
-        <v>7916.73165600748</v>
-      </c>
-      <c r="G4" t="n">
-        <v>7916.73165600748</v>
       </c>
       <c r="H4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007481</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007479</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="K4" t="n">
-        <v>7916.731656007534</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="L4" t="n">
-        <v>7916.731656007533</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.731656007482</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007401</v>
       </c>
       <c r="O4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
     </row>
     <row r="5">
@@ -26475,19 +26475,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26496,22 +26496,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26530,40 +26530,40 @@
         <v>549213.5545917387</v>
       </c>
       <c r="E6" t="n">
-        <v>117891.1194200266</v>
+        <v>116916.5281603053</v>
       </c>
       <c r="F6" t="n">
-        <v>643051.1558969232</v>
+        <v>642076.5646372017</v>
       </c>
       <c r="G6" t="n">
-        <v>643051.1558969232</v>
+        <v>642076.5646372013</v>
       </c>
       <c r="H6" t="n">
-        <v>643051.1558969234</v>
+        <v>642076.5646372015</v>
       </c>
       <c r="I6" t="n">
-        <v>643051.155896923</v>
+        <v>642076.5646372014</v>
       </c>
       <c r="J6" t="n">
-        <v>466627.9367043304</v>
+        <v>465653.3454446085</v>
       </c>
       <c r="K6" t="n">
-        <v>643051.155896923</v>
+        <v>642076.5646372015</v>
       </c>
       <c r="L6" t="n">
-        <v>643051.1558969228</v>
+        <v>642076.5646372014</v>
       </c>
       <c r="M6" t="n">
-        <v>508250.1406630861</v>
+        <v>507275.5494033643</v>
       </c>
       <c r="N6" t="n">
-        <v>643051.1558969233</v>
+        <v>642076.5646372016</v>
       </c>
       <c r="O6" t="n">
-        <v>643051.1558969233</v>
+        <v>642076.5646372011</v>
       </c>
       <c r="P6" t="n">
-        <v>643051.1558969235</v>
+        <v>642076.5646372016</v>
       </c>
     </row>
   </sheetData>
@@ -26737,31 +26737,31 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170866</v>
-      </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>24.01505177740125</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27441,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>253.8337132002121</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27545,22 +27545,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,22 +27584,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>267.540829486852</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>78.24366890293325</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27624,13 +27624,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>168.8186107007398</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27663,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>11.20710234834372</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>141.9938968421886</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>90.78982616592535</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,13 +27833,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>263.6532530567063</v>
       </c>
       <c r="I8" t="n">
-        <v>69.06405933257824</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,19 +27900,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>149.2278925609829</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>62.60929703870286</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,10 +28067,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28098,7 +28098,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -29520,7 +29520,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -29766,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,10 +31928,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31940,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,10 +32165,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33022,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839191</v>
       </c>
       <c r="P9" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35412,28 +35412,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>354.0842496650906</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502032</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490671</v>
+        <v>80.77020197440561</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>376.854446012637</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502032</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>340.4953046390447</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507416</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M21" t="n">
-        <v>670.9270633411913</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M24" t="n">
-        <v>541.1395634276695</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>588.4784392551036</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504663</v>
@@ -36925,13 +36925,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>331.4334930178478</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>236.5687745713073</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504663</v>
@@ -37402,13 +37402,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>460.8305752819984</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>555.3724419700203</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504663</v>
@@ -37639,13 +37639,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>555.3724419700203</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504663</v>
@@ -37876,10 +37876,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>166.2502570412294</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504663</v>
@@ -38110,16 +38110,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4084068.17005756</v>
+        <v>4089007.432906591</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -673,7 +673,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>389.7691182433937</v>
+        <v>40.52814952598126</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -721,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250796</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -828,10 +828,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>50.28788303971731</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>208.2793294336578</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>244.9655593200551</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>44.94159105703854</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>37.83808333974872</v>
+        <v>41.03250833503017</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1150,10 +1150,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>60.26951970765084</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>218.3734398702018</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>30.60408762095441</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722609</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>30.72385075482189</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>143.3158222056515</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1587,10 +1587,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1624,7 +1624,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I14" t="n">
         <v>81.77913505274077</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>164.2419997914798</v>
       </c>
       <c r="U16" t="n">
-        <v>206.806426921486</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T19" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>93.87916681139909</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>57.5645290049876</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2608,7 +2608,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385031</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2769,7 +2769,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>203.8435192151917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2848,7 +2848,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498018</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>143.3158222056515</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>174.3062600431766</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>203.8435192151918</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>139.1537278750038</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634823</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3556,7 +3556,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>93.87916681139897</v>
       </c>
     </row>
     <row r="41">
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>88.99177052521325</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>33.35146980185879</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1662.48357412947</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>1293.521057189058</v>
+        <v>940.7524019189443</v>
       </c>
       <c r="D2" t="n">
-        <v>935.2553585823075</v>
+        <v>582.4867033121939</v>
       </c>
       <c r="E2" t="n">
-        <v>935.2553585823075</v>
+        <v>582.4867033121939</v>
       </c>
       <c r="F2" t="n">
-        <v>928.309857833104</v>
+        <v>575.5412025629904</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4327,13 +4327,13 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4348,10 +4348,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V2" t="n">
         <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.48357412947</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1662.48357412947</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4385,43 +4385,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4430,22 +4430,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4454,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>517.7458231623355</v>
+        <v>252.6519168570175</v>
       </c>
       <c r="C4" t="n">
-        <v>517.7458231623355</v>
+        <v>252.6519168570175</v>
       </c>
       <c r="D4" t="n">
-        <v>517.7458231623355</v>
+        <v>252.6519168570175</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>104.7388232746244</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W4" t="n">
-        <v>517.7458231623355</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="X4" t="n">
-        <v>517.7458231623355</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="Y4" t="n">
-        <v>517.7458231623355</v>
+        <v>252.6519168570175</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1937.083492693021</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C5" t="n">
-        <v>1937.083492693021</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D5" t="n">
-        <v>1578.81779408627</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>1193.029541488026</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>782.0436366984186</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2651.753544495961</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2475.576056810131</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2475.576056810131</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2475.576056810131</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2475.576056810131</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>2122.807401540017</v>
       </c>
       <c r="X5" t="n">
-        <v>2323.683332757143</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="Y5" t="n">
-        <v>2323.683332757143</v>
+        <v>1749.341643278937</v>
       </c>
     </row>
     <row r="6">
@@ -4622,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>689.9086980046678</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="C7" t="n">
-        <v>520.9725150767609</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D7" t="n">
-        <v>370.8558756644252</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
         <v>222.942782082032</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2056.787465592192</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="C8" t="n">
-        <v>1687.824948651781</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D8" t="n">
-        <v>1329.55925004503</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>943.7709974467859</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>532.7850926571784</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>114.8212845553653</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="V8" t="n">
-        <v>2443.387305656314</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="W8" t="n">
-        <v>2443.387305656314</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="X8" t="n">
-        <v>2443.387305656314</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="Y8" t="n">
-        <v>2443.387305656314</v>
+        <v>2476.569858826099</v>
       </c>
     </row>
     <row r="9">
@@ -4880,22 +4880,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4950,19 +4950,19 @@
         <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5020,10 +5020,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5041,25 +5041,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5068,22 +5068,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>241.9805482336712</v>
+        <v>843.8929204411535</v>
       </c>
       <c r="C13" t="n">
-        <v>241.9805482336712</v>
+        <v>674.9567375132466</v>
       </c>
       <c r="D13" t="n">
-        <v>241.9805482336712</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="E13" t="n">
-        <v>241.9805482336712</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F13" t="n">
-        <v>241.9805482336712</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765186</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V13" t="n">
-        <v>531.3977182706318</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="W13" t="n">
-        <v>241.9805482336712</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="X13" t="n">
-        <v>241.9805482336712</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="Y13" t="n">
-        <v>241.9805482336712</v>
+        <v>874.9271131227918</v>
       </c>
     </row>
     <row r="14">
@@ -5260,16 +5260,16 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5281,7 +5281,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5296,10 +5296,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5357,16 +5357,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>177.1795914149474</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>326.2492756170072</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>940.1463453738959</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
         <v>2051.878056918008</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5466,22 +5466,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1133.095250583071</v>
       </c>
       <c r="U16" t="n">
-        <v>1090.100879744681</v>
+        <v>843.9666117966292</v>
       </c>
       <c r="V16" t="n">
-        <v>835.416391538794</v>
+        <v>843.9666117966292</v>
       </c>
       <c r="W16" t="n">
-        <v>545.9992215018333</v>
+        <v>843.9666117966292</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>615.9770608986119</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5600,13 +5600,13 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>563.7235867775518</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M18" t="n">
-        <v>1332.091733170013</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O18" t="n">
         <v>2331.418122136705</v>
@@ -5700,22 +5700,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>1379.229518531123</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
         <v>97.21709146028584</v>
@@ -5746,16 +5746,16 @@
         <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5770,7 +5770,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5831,22 +5831,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>563.7235867775518</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>1332.091733170013</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N21" t="n">
-        <v>1661.954360834046</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P21" t="n">
         <v>2536.440602918915</v>
@@ -5934,25 +5934,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1379.229518531123</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U22" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
         <v>97.21709146028584</v>
@@ -5989,10 +5989,10 @@
         <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1379.229518531123</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.100879744681</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="V25" t="n">
-        <v>835.416391538794</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6214,46 +6214,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514096</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6302,28 +6302,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6417,19 +6417,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1075.21084526296</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>820.5263570570736</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>531.109187020113</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>303.1196361220957</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6442,70 +6442,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514096</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6539,25 +6539,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6663,10 +6663,10 @@
         <v>241.9805482336712</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G32" t="n">
         <v>488.193237080547</v>
@@ -6697,55 +6697,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>972.2646934632138</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>822.148054050878</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G35" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7171,16 +7171,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7192,34 +7192,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7271,10 +7271,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>709.4512536188992</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>420.0340835819385</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>192.0445326839212</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7399,19 +7399,19 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514082</v>
@@ -7423,7 +7423,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7438,22 +7438,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7490,25 +7490,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
         <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
         <v>4454.632848899128</v>
@@ -7675,25 +7675,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>964.135741824786</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>675.0071030383442</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V46" t="n">
-        <v>420.3226148324574</v>
+        <v>1185.240178049213</v>
       </c>
       <c r="W46" t="n">
-        <v>130.9054447954967</v>
+        <v>895.8230080122524</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>447.040877970705</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8072,7 +8072,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8294,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,13 +8540,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516226</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>350.4438349360588</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,19 +9005,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>38.86002301949895</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9178,7 +9178,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627457</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9248,7 +9248,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>29.47535963978231</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9257,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>52.49733361305277</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>29.47535963978231</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9497,13 +9497,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>29.47535963978262</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9953,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445217</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814685</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10427,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445217</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10664,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>29.47535963978262</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10840,7 +10840,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714835</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11138,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445217</v>
@@ -11308,7 +11308,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119852</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11375,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>124.3400780863228</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>149.1081294271154</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>23.17774625772611</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,10 +23475,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23706,22 +23706,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>57.30556126690945</v>
       </c>
       <c r="U16" t="n">
-        <v>79.43092547709136</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23940,10 +23940,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>192.3581855871782</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24414,16 +24414,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>228.6728233935897</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>14.74113413690304</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>82.39383318338568</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,22 +25125,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>23.61454994042668</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>82.39383318338557</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25362,10 +25362,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>82.39383318338548</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>124.7054865406958</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>64.3050033817197</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>163.1458727986147</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>192.3581855871784</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>632775.4335457659</v>
+        <v>632775.433545766</v>
       </c>
     </row>
     <row r="6">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>632775.4335457659</v>
+        <v>632775.433545766</v>
       </c>
     </row>
     <row r="15">
@@ -26316,19 +26316,19 @@
         <v>779989.6813710688</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="E2" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.2135016472</v>
       </c>
       <c r="F2" t="n">
+        <v>742955.213501647</v>
+      </c>
+      <c r="G2" t="n">
         <v>742955.2135016475</v>
-      </c>
-      <c r="G2" t="n">
-        <v>742955.213501647</v>
       </c>
       <c r="H2" t="n">
         <v>742955.2135016472</v>
@@ -26337,10 +26337,10 @@
         <v>742955.2135016471</v>
       </c>
       <c r="J2" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.2135016472</v>
       </c>
       <c r="K2" t="n">
-        <v>742955.2135016472</v>
+        <v>742955.213501647</v>
       </c>
       <c r="L2" t="n">
         <v>742955.2135016471</v>
@@ -26349,13 +26349,13 @@
         <v>742955.2135016472</v>
       </c>
       <c r="N2" t="n">
-        <v>742955.2135016472</v>
+        <v>742955.2135016469</v>
       </c>
       <c r="O2" t="n">
-        <v>742955.2135016469</v>
+        <v>742955.213501647</v>
       </c>
       <c r="P2" t="n">
-        <v>742955.2135016473</v>
+        <v>742955.2135016471</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007525</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="F4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="G4" t="n">
         <v>7916.731656007485</v>
       </c>
-      <c r="G4" t="n">
-        <v>7916.731656007483</v>
-      </c>
       <c r="H4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="I4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007431</v>
       </c>
       <c r="K4" t="n">
+        <v>7916.731656007447</v>
+      </c>
+      <c r="L4" t="n">
         <v>7916.731656007483</v>
-      </c>
-      <c r="L4" t="n">
-        <v>7916.731656007484</v>
       </c>
       <c r="M4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007401</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="O4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007486</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26487,7 +26487,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26505,13 +26505,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-40754.3246228059</v>
+        <v>-40754.32462280603</v>
       </c>
       <c r="C6" t="n">
-        <v>549213.5545917387</v>
+        <v>549213.5545917385</v>
       </c>
       <c r="D6" t="n">
-        <v>549213.5545917387</v>
+        <v>549213.5545917385</v>
       </c>
       <c r="E6" t="n">
-        <v>116916.5281603053</v>
+        <v>117793.6602940549</v>
       </c>
       <c r="F6" t="n">
-        <v>642076.5646372017</v>
+        <v>642953.6967709508</v>
       </c>
       <c r="G6" t="n">
-        <v>642076.5646372013</v>
+        <v>642953.6967709513</v>
       </c>
       <c r="H6" t="n">
-        <v>642076.5646372015</v>
+        <v>642953.696770951</v>
       </c>
       <c r="I6" t="n">
-        <v>642076.5646372014</v>
+        <v>642953.6967709509</v>
       </c>
       <c r="J6" t="n">
-        <v>465653.3454446085</v>
+        <v>466530.477578358</v>
       </c>
       <c r="K6" t="n">
-        <v>642076.5646372015</v>
+        <v>642953.6967709508</v>
       </c>
       <c r="L6" t="n">
-        <v>642076.5646372014</v>
+        <v>642953.6967709509</v>
       </c>
       <c r="M6" t="n">
-        <v>507275.5494033643</v>
+        <v>508152.6815371138</v>
       </c>
       <c r="N6" t="n">
-        <v>642076.5646372016</v>
+        <v>642953.6967709507</v>
       </c>
       <c r="O6" t="n">
-        <v>642076.5646372011</v>
+        <v>642953.6967709508</v>
       </c>
       <c r="P6" t="n">
-        <v>642076.5646372016</v>
+        <v>642953.6967709509</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
@@ -26755,7 +26755,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>24.01505177740125</v>
+        <v>373.2560204948137</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27548,10 +27548,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>95.13316498321393</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27596,16 +27596,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>78.24366890293325</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>168.8186107007398</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>9.536811517773153</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>141.9938968421886</v>
+        <v>138.7994718469071</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>263.6532530567063</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,7 +27909,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>32.85072763808748</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>149.2278925609829</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28098,7 +28098,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,13 +35260,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839191</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>80.77020197440561</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
@@ -35898,7 +35898,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P17" t="n">
         <v>570.6060255109123</v>
@@ -35968,7 +35968,7 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>278.7330645958066</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
         <v>776.1294408004661</v>
@@ -35977,7 +35977,7 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>334.8610358541609</v>
       </c>
       <c r="P18" t="n">
         <v>207.0934149315246</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>278.7330645958066</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>236.5687745713073</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330535</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36928,7 +36928,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>236.5687745713073</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
@@ -37560,7 +37560,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109132</v>
       </c>
       <c r="Q38" t="n">
         <v>350.4995841502048</v>
@@ -37639,13 +37639,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38028,7 +38028,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081129</v>
       </c>
       <c r="O44" t="n">
         <v>713.1546070951472</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>434.7644551367891</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
